--- a/BackTest/2020-01-16 BackTest AMO.xlsx
+++ b/BackTest/2020-01-16 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-68206800.17980003</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-64328724.44670003</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-68777828.85340004</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-79804311.00250004</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-80783077.65650004</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-85108662.58610004</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-71037656.42950004</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-72228317.14350004</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-73139277.69850005</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-72208524.21490005</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-73704312.37390004</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-72895060.96790004</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-74111148.96890004</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-76068682.27690004</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-75267906.63290004</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-76441615.82190004</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-75717122.03890003</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-76823025.12890004</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-76835125.12890004</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-76068252.53390004</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-77504710.35690004</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-76271670.83190003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-77369098.15890004</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-75907213.04890004</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-76767879.37920004</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-75517888.32920004</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-76530558.03320004</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-76530558.03320004</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-74064478.98220004</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-75051721.39820004</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-73700021.19920003</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-72695827.25820003</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-71191563.33620003</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-70246699.73120002</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>53053276.27079998</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>56345558.25279998</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>55904818.60879999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>56993770.17379998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>55591215.40079998</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>55362369.81679998</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>56654739.67879998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>57803021.58079998</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>56688642.72879998</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>55345418.29279999</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>56095339.36279999</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>54853824.07479998</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>53917436.23279998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>54972484.74779999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>53951339.28179999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>54853824.07479998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>53976766.56979998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>53286175.83679998</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>51815814.96479998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>52599639.08379998</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>57262950.24659999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>58673980.78159998</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>57856253.61259998</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>57856253.61259998</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>59055390.08859999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>59796835.39559999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>58724835.35559999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>57203619.90959999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>59905959.57199998</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>60664356.40399998</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>59202471.29399998</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>61380374.42499998</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>62232004.64299998</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>61371898.66199999</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>62791404.95999999</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>61626171.53399999</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>60469413.86999999</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>61922823.21699999</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>62901589.87099999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>63634559.41599999</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>62443898.70199999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>61532938.14699999</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>60605026.06699999</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>62100814.226</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>62910065.632</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>61693977.631</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>62757501.90899999</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>63651510.939</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>62850735.29499999</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>64024444.484</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>64748938.267</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>63643035.17699999</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>64409907.77199999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>65846365.59499999</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>64613326.06999999</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>64863828.0983</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>66520655.74229999</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>66885113.52529999</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>67385183.50629999</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>68330047.11129999</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>66952919.62529999</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>65465607.22829999</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>66749501.32829999</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>65923298.39729999</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>64791968.02029999</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>63347034.43529999</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>64385131.42629999</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>62991052.41529999</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>63698594.67329999</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>62423176.33629999</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>61054524.61229999</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>62194330.75129999</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>63283282.31629999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>60319108.66109998</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>59543760.30409998</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>57111201.08429997</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>58259482.98629998</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>57145104.13429998</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>55801879.69829998</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>56551800.76829998</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>55310285.48029998</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>55310285.48029998</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>56409272.86649998</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>57532127.48049998</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>58799070.05549998</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>57591457.81749998</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>57905061.02549998</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>59239809.69949998</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>59938876.19449998</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>58621079.04549998</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>60844616.46569999</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>59913008.08869998</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>59913008.08869998</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>60747686.78269998</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>62277377.99169999</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>60756161.77589998</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>59870628.50789998</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>61052813.45889998</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>60209659.00289998</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>61078240.74589998</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>53284290.74589998</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>52525893.91389998</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>49569759.22089998</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>50489195.53789999</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>43839467.41119999</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>43839467.41119999</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>42309776.20219999</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>31767052.19039999</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>30457730.80339999</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>30457730.80339999</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>29462012.62439999</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>40043447.96669999</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>40835747.84869999</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>40844133.23809998</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>39873842.34609999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>40712766.89299999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>41572872.87399999</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>10884377.53139998</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>5482167.884499982</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>4266079.883499982</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>4338089.883499982</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>5401614.161499982</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>4495759.735299982</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>5296535.379299982</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>6470244.568299983</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>7194738.351299983</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>6088835.261299983</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>6855707.856299982</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>8292165.679299982</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>8292165.679299982</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>5601777.845899982</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>5601777.845899982</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>5428895.926099982</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>7597082.688699982</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>6347091.638699982</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>7359761.342699982</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>7359761.342699982</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>6406421.975699983</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>5880924.707699983</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>5374235.965799984</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>5374235.965799984</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>3840044.902599984</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>2354711.741699984</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1541336.842800016</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-134616111.5612001</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-135141608.8292001</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-136493309.0282001</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-127686630.6393001</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-130305718.3433001</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -23122,14 +23122,10 @@
         <v>-252074526.0812494</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
-      </c>
-      <c r="I689" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="J689" t="n">
-        <v>0.2505</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
@@ -23159,774 +23155,644 @@
         <v>-252074526.0812494</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
-      </c>
-      <c r="I690" t="n">
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
+      <c r="L690" t="n">
+        <v>1</v>
+      </c>
+      <c r="M690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="n">
+        <v>0.2507</v>
+      </c>
+      <c r="C691" t="n">
+        <v>0.2507</v>
+      </c>
+      <c r="D691" t="n">
+        <v>0.2507</v>
+      </c>
+      <c r="E691" t="n">
+        <v>0.2507</v>
+      </c>
+      <c r="F691" t="n">
+        <v>1300845.624</v>
+      </c>
+      <c r="G691" t="n">
+        <v>-253375371.7052495</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
+      <c r="L691" t="n">
+        <v>1</v>
+      </c>
+      <c r="M691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="n">
+        <v>0.2509</v>
+      </c>
+      <c r="C692" t="n">
+        <v>0.2509</v>
+      </c>
+      <c r="D692" t="n">
+        <v>0.2509</v>
+      </c>
+      <c r="E692" t="n">
+        <v>0.2509</v>
+      </c>
+      <c r="F692" t="n">
+        <v>1080475.803</v>
+      </c>
+      <c r="G692" t="n">
+        <v>-252294895.9022495</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
+      <c r="L692" t="n">
+        <v>1</v>
+      </c>
+      <c r="M692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="C693" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="D693" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="E693" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="F693" t="n">
+        <v>367.1607</v>
+      </c>
+      <c r="G693" t="n">
+        <v>-252295263.0629494</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
+      <c r="L693" t="n">
+        <v>1</v>
+      </c>
+      <c r="M693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="n">
+        <v>0.2501</v>
+      </c>
+      <c r="C694" t="n">
+        <v>0.2501</v>
+      </c>
+      <c r="D694" t="n">
+        <v>0.2501</v>
+      </c>
+      <c r="E694" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F694" t="n">
+        <v>1829691.209</v>
+      </c>
+      <c r="G694" t="n">
+        <v>-254124954.2719494</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
+      <c r="L694" t="n">
+        <v>1</v>
+      </c>
+      <c r="M694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="n">
+        <v>0.2497</v>
+      </c>
+      <c r="C695" t="n">
+        <v>0.2497</v>
+      </c>
+      <c r="D695" t="n">
+        <v>0.2497</v>
+      </c>
+      <c r="E695" t="n">
+        <v>0.2497</v>
+      </c>
+      <c r="F695" t="n">
+        <v>1309321.387</v>
+      </c>
+      <c r="G695" t="n">
+        <v>-255434275.6589494</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
+      <c r="L695" t="n">
+        <v>1</v>
+      </c>
+      <c r="M695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="n">
+        <v>0.2499</v>
+      </c>
+      <c r="C696" t="n">
+        <v>0.2499</v>
+      </c>
+      <c r="D696" t="n">
+        <v>0.2499</v>
+      </c>
+      <c r="E696" t="n">
+        <v>0.2499</v>
+      </c>
+      <c r="F696" t="n">
+        <v>1478836.634</v>
+      </c>
+      <c r="G696" t="n">
+        <v>-253955439.0249494</v>
+      </c>
+      <c r="H696" t="n">
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
+      <c r="L696" t="n">
+        <v>1</v>
+      </c>
+      <c r="M696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C697" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D697" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E697" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F697" t="n">
+        <v>1988</v>
+      </c>
+      <c r="G697" t="n">
+        <v>-253953451.0249494</v>
+      </c>
+      <c r="H697" t="n">
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
+      <c r="L697" t="n">
+        <v>1</v>
+      </c>
+      <c r="M697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="n">
+        <v>0.2499</v>
+      </c>
+      <c r="C698" t="n">
+        <v>0.2499</v>
+      </c>
+      <c r="D698" t="n">
+        <v>0.2499</v>
+      </c>
+      <c r="E698" t="n">
+        <v>0.2499</v>
+      </c>
+      <c r="F698" t="n">
+        <v>995718.179</v>
+      </c>
+      <c r="G698" t="n">
+        <v>-254949169.2039494</v>
+      </c>
+      <c r="H698" t="n">
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
+      <c r="L698" t="n">
+        <v>1</v>
+      </c>
+      <c r="M698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="n">
+        <v>0.2496</v>
+      </c>
+      <c r="C699" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D699" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E699" t="n">
+        <v>0.2496</v>
+      </c>
+      <c r="F699" t="n">
+        <v>237348.1597</v>
+      </c>
+      <c r="G699" t="n">
+        <v>-254711821.0442494</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
+      <c r="L699" t="n">
+        <v>1</v>
+      </c>
+      <c r="M699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="n">
+        <v>0.2499</v>
+      </c>
+      <c r="C700" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D700" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E700" t="n">
+        <v>0.2499</v>
+      </c>
+      <c r="F700" t="n">
+        <v>1590304.8695</v>
+      </c>
+      <c r="G700" t="n">
+        <v>-254711821.0442494</v>
+      </c>
+      <c r="H700" t="n">
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
+      <c r="L700" t="n">
+        <v>1</v>
+      </c>
+      <c r="M700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="C701" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="D701" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="E701" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="F701" t="n">
+        <v>2120.0834</v>
+      </c>
+      <c r="G701" t="n">
+        <v>-254709700.9608494</v>
+      </c>
+      <c r="H701" t="n">
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
+      <c r="L701" t="n">
+        <v>1</v>
+      </c>
+      <c r="M701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="C702" t="n">
         <v>0.251</v>
       </c>
-      <c r="J690" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K690" t="inlineStr">
+      <c r="D702" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="E702" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="F702" t="n">
+        <v>5358627.0569</v>
+      </c>
+      <c r="G702" t="n">
+        <v>-249351073.9039494</v>
+      </c>
+      <c r="H702" t="n">
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
+      <c r="L702" t="n">
+        <v>1</v>
+      </c>
+      <c r="M702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="C703" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="D703" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="E703" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="F703" t="n">
+        <v>851630.218</v>
+      </c>
+      <c r="G703" t="n">
+        <v>-250202704.1219494</v>
+      </c>
+      <c r="H703" t="n">
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
+      <c r="L703" t="n">
+        <v>1</v>
+      </c>
+      <c r="M703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="n">
+        <v>0.2506</v>
+      </c>
+      <c r="C704" t="n">
+        <v>0.2506</v>
+      </c>
+      <c r="D704" t="n">
+        <v>0.2506</v>
+      </c>
+      <c r="E704" t="n">
+        <v>0.2506</v>
+      </c>
+      <c r="F704" t="n">
+        <v>860105.981</v>
+      </c>
+      <c r="G704" t="n">
+        <v>-249342598.1409494</v>
+      </c>
+      <c r="H704" t="n">
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
+      <c r="L704" t="n">
+        <v>1</v>
+      </c>
+      <c r="M704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C705" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D705" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E705" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F705" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G705" t="n">
+        <v>-249642598.1409494</v>
+      </c>
+      <c r="H705" t="n">
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
+      <c r="L705" t="n">
+        <v>1</v>
+      </c>
+      <c r="M705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="n">
+        <v>0.2507</v>
+      </c>
+      <c r="C706" t="n">
+        <v>0.2507</v>
+      </c>
+      <c r="D706" t="n">
+        <v>0.2507</v>
+      </c>
+      <c r="E706" t="n">
+        <v>0.2507</v>
+      </c>
+      <c r="F706" t="n">
+        <v>1419506.298</v>
+      </c>
+      <c r="G706" t="n">
+        <v>-248223091.8429494</v>
+      </c>
+      <c r="H706" t="n">
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
+      <c r="L706" t="n">
+        <v>1</v>
+      </c>
+      <c r="M706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="n">
+        <v>0.2498</v>
+      </c>
+      <c r="C707" t="n">
+        <v>0.2498</v>
+      </c>
+      <c r="D707" t="n">
+        <v>0.2498</v>
+      </c>
+      <c r="E707" t="n">
+        <v>0.2498</v>
+      </c>
+      <c r="F707" t="n">
+        <v>1165233.426</v>
+      </c>
+      <c r="G707" t="n">
+        <v>-249388325.2689494</v>
+      </c>
+      <c r="H707" t="n">
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
+      <c r="L707" t="n">
+        <v>1</v>
+      </c>
+      <c r="M707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="n">
+        <v>0.2496</v>
+      </c>
+      <c r="C708" t="n">
+        <v>0.2496</v>
+      </c>
+      <c r="D708" t="n">
+        <v>0.2496</v>
+      </c>
+      <c r="E708" t="n">
+        <v>0.2496</v>
+      </c>
+      <c r="F708" t="n">
+        <v>1156757.664</v>
+      </c>
+      <c r="G708" t="n">
+        <v>-250545082.9329494</v>
+      </c>
+      <c r="H708" t="n">
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
+      <c r="L708" t="n">
+        <v>1</v>
+      </c>
+      <c r="M708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="n">
+        <v>0.2496</v>
+      </c>
+      <c r="C709" t="n">
+        <v>0.2499</v>
+      </c>
+      <c r="D709" t="n">
+        <v>0.2499</v>
+      </c>
+      <c r="E709" t="n">
+        <v>0.2496</v>
+      </c>
+      <c r="F709" t="n">
+        <v>2030483.2688</v>
+      </c>
+      <c r="G709" t="n">
+        <v>-248514599.6641494</v>
+      </c>
+      <c r="H709" t="n">
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>0.2496</v>
+      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L690" t="n">
-        <v>1</v>
-      </c>
-      <c r="M690" t="inlineStr"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>689</v>
-      </c>
-      <c r="B691" t="n">
-        <v>0.2507</v>
-      </c>
-      <c r="C691" t="n">
-        <v>0.2507</v>
-      </c>
-      <c r="D691" t="n">
-        <v>0.2507</v>
-      </c>
-      <c r="E691" t="n">
-        <v>0.2507</v>
-      </c>
-      <c r="F691" t="n">
-        <v>1300845.624</v>
-      </c>
-      <c r="G691" t="n">
-        <v>-253375371.7052495</v>
-      </c>
-      <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L691" t="n">
-        <v>1</v>
-      </c>
-      <c r="M691" t="inlineStr"/>
-    </row>
-    <row r="692">
-      <c r="A692" s="1" t="n">
-        <v>690</v>
-      </c>
-      <c r="B692" t="n">
-        <v>0.2509</v>
-      </c>
-      <c r="C692" t="n">
-        <v>0.2509</v>
-      </c>
-      <c r="D692" t="n">
-        <v>0.2509</v>
-      </c>
-      <c r="E692" t="n">
-        <v>0.2509</v>
-      </c>
-      <c r="F692" t="n">
-        <v>1080475.803</v>
-      </c>
-      <c r="G692" t="n">
-        <v>-252294895.9022495</v>
-      </c>
-      <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L692" t="n">
-        <v>1</v>
-      </c>
-      <c r="M692" t="inlineStr"/>
-    </row>
-    <row r="693">
-      <c r="A693" s="1" t="n">
-        <v>691</v>
-      </c>
-      <c r="B693" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="C693" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="D693" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="E693" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="F693" t="n">
-        <v>367.1607</v>
-      </c>
-      <c r="G693" t="n">
-        <v>-252295263.0629494</v>
-      </c>
-      <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L693" t="n">
-        <v>1</v>
-      </c>
-      <c r="M693" t="inlineStr"/>
-    </row>
-    <row r="694">
-      <c r="A694" s="1" t="n">
-        <v>692</v>
-      </c>
-      <c r="B694" t="n">
-        <v>0.2501</v>
-      </c>
-      <c r="C694" t="n">
-        <v>0.2501</v>
-      </c>
-      <c r="D694" t="n">
-        <v>0.2501</v>
-      </c>
-      <c r="E694" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F694" t="n">
-        <v>1829691.209</v>
-      </c>
-      <c r="G694" t="n">
-        <v>-254124954.2719494</v>
-      </c>
-      <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L694" t="n">
-        <v>1</v>
-      </c>
-      <c r="M694" t="inlineStr"/>
-    </row>
-    <row r="695">
-      <c r="A695" s="1" t="n">
-        <v>693</v>
-      </c>
-      <c r="B695" t="n">
-        <v>0.2497</v>
-      </c>
-      <c r="C695" t="n">
-        <v>0.2497</v>
-      </c>
-      <c r="D695" t="n">
-        <v>0.2497</v>
-      </c>
-      <c r="E695" t="n">
-        <v>0.2497</v>
-      </c>
-      <c r="F695" t="n">
-        <v>1309321.387</v>
-      </c>
-      <c r="G695" t="n">
-        <v>-255434275.6589494</v>
-      </c>
-      <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L695" t="n">
-        <v>1</v>
-      </c>
-      <c r="M695" t="inlineStr"/>
-    </row>
-    <row r="696">
-      <c r="A696" s="1" t="n">
-        <v>694</v>
-      </c>
-      <c r="B696" t="n">
-        <v>0.2499</v>
-      </c>
-      <c r="C696" t="n">
-        <v>0.2499</v>
-      </c>
-      <c r="D696" t="n">
-        <v>0.2499</v>
-      </c>
-      <c r="E696" t="n">
-        <v>0.2499</v>
-      </c>
-      <c r="F696" t="n">
-        <v>1478836.634</v>
-      </c>
-      <c r="G696" t="n">
-        <v>-253955439.0249494</v>
-      </c>
-      <c r="H696" t="n">
-        <v>2</v>
-      </c>
-      <c r="I696" t="n">
-        <v>0.2497</v>
-      </c>
-      <c r="J696" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L696" t="n">
-        <v>1</v>
-      </c>
-      <c r="M696" t="inlineStr"/>
-    </row>
-    <row r="697">
-      <c r="A697" s="1" t="n">
-        <v>695</v>
-      </c>
-      <c r="B697" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C697" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D697" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E697" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F697" t="n">
-        <v>1988</v>
-      </c>
-      <c r="G697" t="n">
-        <v>-253953451.0249494</v>
-      </c>
-      <c r="H697" t="n">
-        <v>2</v>
-      </c>
-      <c r="I697" t="n">
-        <v>0.2499</v>
-      </c>
-      <c r="J697" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L697" t="n">
-        <v>1</v>
-      </c>
-      <c r="M697" t="inlineStr"/>
-    </row>
-    <row r="698">
-      <c r="A698" s="1" t="n">
-        <v>696</v>
-      </c>
-      <c r="B698" t="n">
-        <v>0.2499</v>
-      </c>
-      <c r="C698" t="n">
-        <v>0.2499</v>
-      </c>
-      <c r="D698" t="n">
-        <v>0.2499</v>
-      </c>
-      <c r="E698" t="n">
-        <v>0.2499</v>
-      </c>
-      <c r="F698" t="n">
-        <v>995718.179</v>
-      </c>
-      <c r="G698" t="n">
-        <v>-254949169.2039494</v>
-      </c>
-      <c r="H698" t="n">
-        <v>2</v>
-      </c>
-      <c r="I698" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J698" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L698" t="n">
-        <v>1</v>
-      </c>
-      <c r="M698" t="inlineStr"/>
-    </row>
-    <row r="699">
-      <c r="A699" s="1" t="n">
-        <v>697</v>
-      </c>
-      <c r="B699" t="n">
-        <v>0.2496</v>
-      </c>
-      <c r="C699" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D699" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E699" t="n">
-        <v>0.2496</v>
-      </c>
-      <c r="F699" t="n">
-        <v>237348.1597</v>
-      </c>
-      <c r="G699" t="n">
-        <v>-254711821.0442494</v>
-      </c>
-      <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L699" t="n">
-        <v>1</v>
-      </c>
-      <c r="M699" t="inlineStr"/>
-    </row>
-    <row r="700">
-      <c r="A700" s="1" t="n">
-        <v>698</v>
-      </c>
-      <c r="B700" t="n">
-        <v>0.2499</v>
-      </c>
-      <c r="C700" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D700" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E700" t="n">
-        <v>0.2499</v>
-      </c>
-      <c r="F700" t="n">
-        <v>1590304.8695</v>
-      </c>
-      <c r="G700" t="n">
-        <v>-254711821.0442494</v>
-      </c>
-      <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L700" t="n">
-        <v>1</v>
-      </c>
-      <c r="M700" t="inlineStr"/>
-    </row>
-    <row r="701">
-      <c r="A701" s="1" t="n">
-        <v>699</v>
-      </c>
-      <c r="B701" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="C701" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="D701" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="E701" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="F701" t="n">
-        <v>2120.0834</v>
-      </c>
-      <c r="G701" t="n">
-        <v>-254709700.9608494</v>
-      </c>
-      <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L701" t="n">
-        <v>1</v>
-      </c>
-      <c r="M701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="A702" s="1" t="n">
-        <v>700</v>
-      </c>
-      <c r="B702" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="C702" t="n">
-        <v>0.251</v>
-      </c>
-      <c r="D702" t="n">
-        <v>0.251</v>
-      </c>
-      <c r="E702" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="F702" t="n">
-        <v>5358627.0569</v>
-      </c>
-      <c r="G702" t="n">
-        <v>-249351073.9039494</v>
-      </c>
-      <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L702" t="n">
-        <v>1</v>
-      </c>
-      <c r="M702" t="inlineStr"/>
-    </row>
-    <row r="703">
-      <c r="A703" s="1" t="n">
-        <v>701</v>
-      </c>
-      <c r="B703" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="C703" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="D703" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="E703" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="F703" t="n">
-        <v>851630.218</v>
-      </c>
-      <c r="G703" t="n">
-        <v>-250202704.1219494</v>
-      </c>
-      <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L703" t="n">
-        <v>1</v>
-      </c>
-      <c r="M703" t="inlineStr"/>
-    </row>
-    <row r="704">
-      <c r="A704" s="1" t="n">
-        <v>702</v>
-      </c>
-      <c r="B704" t="n">
-        <v>0.2506</v>
-      </c>
-      <c r="C704" t="n">
-        <v>0.2506</v>
-      </c>
-      <c r="D704" t="n">
-        <v>0.2506</v>
-      </c>
-      <c r="E704" t="n">
-        <v>0.2506</v>
-      </c>
-      <c r="F704" t="n">
-        <v>860105.981</v>
-      </c>
-      <c r="G704" t="n">
-        <v>-249342598.1409494</v>
-      </c>
-      <c r="H704" t="n">
-        <v>2</v>
-      </c>
-      <c r="I704" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="J704" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L704" t="n">
-        <v>1</v>
-      </c>
-      <c r="M704" t="inlineStr"/>
-    </row>
-    <row r="705">
-      <c r="A705" s="1" t="n">
-        <v>703</v>
-      </c>
-      <c r="B705" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C705" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D705" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E705" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F705" t="n">
-        <v>300000</v>
-      </c>
-      <c r="G705" t="n">
-        <v>-249642598.1409494</v>
-      </c>
-      <c r="H705" t="n">
-        <v>2</v>
-      </c>
-      <c r="I705" t="n">
-        <v>0.2506</v>
-      </c>
-      <c r="J705" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L705" t="n">
-        <v>1</v>
-      </c>
-      <c r="M705" t="inlineStr"/>
-    </row>
-    <row r="706">
-      <c r="A706" s="1" t="n">
-        <v>704</v>
-      </c>
-      <c r="B706" t="n">
-        <v>0.2507</v>
-      </c>
-      <c r="C706" t="n">
-        <v>0.2507</v>
-      </c>
-      <c r="D706" t="n">
-        <v>0.2507</v>
-      </c>
-      <c r="E706" t="n">
-        <v>0.2507</v>
-      </c>
-      <c r="F706" t="n">
-        <v>1419506.298</v>
-      </c>
-      <c r="G706" t="n">
-        <v>-248223091.8429494</v>
-      </c>
-      <c r="H706" t="n">
-        <v>2</v>
-      </c>
-      <c r="I706" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J706" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L706" t="n">
-        <v>1</v>
-      </c>
-      <c r="M706" t="inlineStr"/>
-    </row>
-    <row r="707">
-      <c r="A707" s="1" t="n">
-        <v>705</v>
-      </c>
-      <c r="B707" t="n">
-        <v>0.2498</v>
-      </c>
-      <c r="C707" t="n">
-        <v>0.2498</v>
-      </c>
-      <c r="D707" t="n">
-        <v>0.2498</v>
-      </c>
-      <c r="E707" t="n">
-        <v>0.2498</v>
-      </c>
-      <c r="F707" t="n">
-        <v>1165233.426</v>
-      </c>
-      <c r="G707" t="n">
-        <v>-249388325.2689494</v>
-      </c>
-      <c r="H707" t="n">
-        <v>2</v>
-      </c>
-      <c r="I707" t="n">
-        <v>0.2507</v>
-      </c>
-      <c r="J707" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L707" t="n">
-        <v>1</v>
-      </c>
-      <c r="M707" t="inlineStr"/>
-    </row>
-    <row r="708">
-      <c r="A708" s="1" t="n">
-        <v>706</v>
-      </c>
-      <c r="B708" t="n">
-        <v>0.2496</v>
-      </c>
-      <c r="C708" t="n">
-        <v>0.2496</v>
-      </c>
-      <c r="D708" t="n">
-        <v>0.2496</v>
-      </c>
-      <c r="E708" t="n">
-        <v>0.2496</v>
-      </c>
-      <c r="F708" t="n">
-        <v>1156757.664</v>
-      </c>
-      <c r="G708" t="n">
-        <v>-250545082.9329494</v>
-      </c>
-      <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L708" t="n">
-        <v>1</v>
-      </c>
-      <c r="M708" t="inlineStr"/>
-    </row>
-    <row r="709">
-      <c r="A709" s="1" t="n">
-        <v>707</v>
-      </c>
-      <c r="B709" t="n">
-        <v>0.2496</v>
-      </c>
-      <c r="C709" t="n">
-        <v>0.2499</v>
-      </c>
-      <c r="D709" t="n">
-        <v>0.2499</v>
-      </c>
-      <c r="E709" t="n">
-        <v>0.2496</v>
-      </c>
-      <c r="F709" t="n">
-        <v>2030483.2688</v>
-      </c>
-      <c r="G709" t="n">
-        <v>-248514599.6641494</v>
-      </c>
-      <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>0.2505</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23958,9 +23824,7 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23994,12 +23858,12 @@
         <v>-247233834.0101494</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>0.2505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24036,9 +23900,7 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24075,9 +23937,7 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24114,9 +23974,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24153,9 +24011,7 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24189,12 +24045,12 @@
         <v>-248579609.5875494</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>0.2505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>0.2509</v>
+      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24228,14 +24084,12 @@
         <v>-248577620.5875494</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I717" t="n">
         <v>0.25</v>
       </c>
-      <c r="J717" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24272,9 +24126,7 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24311,9 +24163,7 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24350,9 +24200,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24386,14 +24234,10 @@
         <v>-248603047.8735494</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
-      </c>
-      <c r="I721" t="n">
-        <v>0.2511</v>
-      </c>
-      <c r="J721" t="n">
-        <v>0.2505</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24427,14 +24271,10 @@
         <v>-248601059.8735494</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
-      </c>
-      <c r="I722" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J722" t="n">
-        <v>0.2505</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24471,9 +24311,7 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24510,9 +24348,7 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24549,9 +24385,7 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24588,9 +24422,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24624,14 +24456,12 @@
         <v>-263698399.3215494</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I727" t="n">
         <v>0.2507</v>
       </c>
-      <c r="J727" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24665,14 +24495,12 @@
         <v>-262931526.7265494</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I728" t="n">
         <v>0.2502</v>
       </c>
-      <c r="J728" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24706,14 +24534,12 @@
         <v>-261495068.9035494</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I729" t="n">
         <v>0.2513</v>
       </c>
-      <c r="J729" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24747,14 +24573,12 @@
         <v>-261499452.7858494</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I730" t="n">
         <v>0.2516</v>
       </c>
-      <c r="J730" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24788,14 +24612,12 @@
         <v>-260259116.8881494</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I731" t="n">
         <v>0.2501</v>
       </c>
-      <c r="J731" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24829,12 +24651,12 @@
         <v>-260159116.8881494</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>0.2505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>0.2502</v>
+      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24871,9 +24693,7 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24910,9 +24730,7 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24949,9 +24767,7 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24988,9 +24804,7 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25027,9 +24841,7 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25066,9 +24878,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25105,9 +24915,7 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25141,12 +24949,12 @@
         <v>-262989676.0467494</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>0.2505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>0.2492</v>
+      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25180,12 +24988,12 @@
         <v>-262002433.6307493</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>0.2505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>0.2491</v>
+      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25219,12 +25027,12 @@
         <v>-260650733.4317493</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>0.2505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>0.2498</v>
+      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25261,9 +25069,7 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25297,12 +25103,12 @@
         <v>-265106145.0982493</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>0.2505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25339,9 +25145,7 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25378,9 +25182,7 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25414,12 +25216,12 @@
         <v>-264051096.5822493</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>0.2505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>0.2489</v>
+      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25453,12 +25255,12 @@
         <v>-275917121.6388493</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>0.2505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>0.2494</v>
+      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25492,12 +25294,12 @@
         <v>-274633227.5388493</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>0.2505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25534,9 +25336,7 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>0.2505</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25570,12 +25370,12 @@
         <v>-274938354.9848493</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>0.2505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>0.2496</v>
+      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25609,12 +25409,12 @@
         <v>-273493421.3998493</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>0.2505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>0.2473</v>
+      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25626,6 +25426,6 @@
       <c r="M752" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest AMO.xlsx
+++ b/BackTest/2020-01-16 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-68206800.17980003</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-64328724.44670003</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-68777828.85340004</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-79804311.00250004</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-80783077.65650004</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-85108662.58610004</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-71037656.42950004</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-72228317.14350004</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-73139277.69850005</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-72208524.21490005</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-73704312.37390004</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-72895060.96790004</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-75267906.63290004</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-76441615.82190004</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-75717122.03890003</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-76823025.12890004</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-76835125.12890004</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-76068252.53390004</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-77504710.35690004</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-76271670.83190003</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-77369098.15890004</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-75907213.04890004</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-76767879.37920004</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-75517888.32920004</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-76530558.03320004</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-76530558.03320004</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-74064478.98220004</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-75051721.39820004</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-73700021.19920003</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-72695827.25820003</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-71191563.33620003</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-70246699.73120002</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>53053276.27079998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>55904818.60879999</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>56993770.17379998</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>55362369.81679998</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>56654739.67879998</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>57803021.58079998</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>56688642.72879998</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>55345418.29279999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>56095339.36279999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>54853824.07479998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>53917436.23279998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>54972484.74779999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>53951339.28179999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>54853824.07479998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>53976766.56979998</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>53286175.83679998</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>51815814.96479998</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>52599639.08379998</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>57262950.24659999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>58673980.78159998</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>57856253.61259998</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>57856253.61259998</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>59055390.08859999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>59796835.39559999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>58724835.35559999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>57203619.90959999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>61626171.53399999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>61922823.21699999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>62901589.87099999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>63634559.41599999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>62443898.70199999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>61532938.14699999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>60605026.06699999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>62100814.226</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>62910065.632</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>61693977.631</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>62757501.90899999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>63651510.939</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>62850735.29499999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>64024444.484</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>64748938.267</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>63643035.17699999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>64409907.77199999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>65846365.59499999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>64613326.06999999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>64863828.0983</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>66749501.32829999</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>65923298.39729999</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>64791968.02029999</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>63283282.31629999</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>57145104.13429998</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>55801879.69829998</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>56551800.76829998</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>55310285.48029998</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>55310285.48029998</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>58799070.05549998</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>59870628.50789998</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>61052813.45889998</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>60209659.00289998</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>61078240.74589998</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>53284290.74589998</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>52525893.91389998</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>49569759.22089998</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>50489195.53789999</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>43839467.41119999</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>43839467.41119999</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>42309776.20219999</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>31767052.19039999</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>30457730.80339999</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>30457730.80339999</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>29462012.62439999</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>40043447.96669999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>40835747.84869999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>40844133.23809998</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>39873842.34609999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>40712766.89299999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>41572872.87399999</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>10884377.53139998</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>5482167.884499982</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>4266079.883499982</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>4338089.883499982</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>5401614.161499982</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>4495759.735299982</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>5296535.379299982</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>6470244.568299983</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>7194738.351299983</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>6088835.261299983</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>6855707.856299982</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>8292165.679299982</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>8292165.679299982</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>5601777.845899982</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>5601777.845899982</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>5428895.926099982</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>7597082.688699982</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>6347091.638699982</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>7359761.342699982</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>7359761.342699982</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-8725923.547400018</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-16305038.23840002</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-16303069.23840002</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-18694865.42740002</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-35449611.10960002</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-36606368.77360002</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-137497502.9692001</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-137912815.3252001</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-138747489.7843001</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-140116141.5083001</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-138976335.3693001</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-137887383.8043001</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-139289938.5773001</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-140650114.5383001</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-139425550.7753001</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-137997568.7153001</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-136611965.4673001</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-137387313.8243001</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-136094943.9623001</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-134646662.0603001</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-132532283.2083001</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-133875507.6443001</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-133873508.6443001</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-127929500.2163001</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-150164895.0110003</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-151070862.9791003</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-151949906.7441003</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-151953389.9192003</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-151262799.1862003</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-153072190.5532003</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-152359407.1362004</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23821,9 +23821,11 @@
         <v>-248214599.6641494</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>0.2499</v>
+      </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
@@ -24045,11 +24047,9 @@
         <v>-248579609.5875494</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>0.2509</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -24084,11 +24084,9 @@
         <v>-248577620.5875494</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>0.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -24456,11 +24454,9 @@
         <v>-263698399.3215494</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
-      </c>
-      <c r="I727" t="n">
-        <v>0.2507</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -24495,11 +24491,9 @@
         <v>-262931526.7265494</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
-        <v>0.2502</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -24534,11 +24528,9 @@
         <v>-261495068.9035494</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>0.2513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -24573,11 +24565,9 @@
         <v>-261499452.7858494</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>0.2516</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -24612,11 +24602,9 @@
         <v>-260259116.8881494</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>0.2501</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -24651,11 +24639,9 @@
         <v>-260159116.8881494</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>0.2502</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -24875,18 +24861,16 @@
         <v>-260523596.9957494</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L738" t="n">
-        <v>1</v>
-      </c>
+      <c r="L738" t="inlineStr"/>
       <c r="M738" t="inlineStr"/>
     </row>
     <row r="739">
@@ -24912,15 +24896,11 @@
         <v>-261476936.3627494</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24949,17 +24929,11 @@
         <v>-262989676.0467494</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>0.2492</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24988,17 +24962,11 @@
         <v>-262002433.6307493</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>0.2491</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25027,17 +24995,11 @@
         <v>-260650733.4317493</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
-      </c>
-      <c r="I742" t="n">
-        <v>0.2498</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25070,11 +25032,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25103,17 +25061,11 @@
         <v>-265106145.0982493</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>0.2518</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25142,15 +25094,11 @@
         <v>-264161281.4932493</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25179,15 +25127,11 @@
         <v>-265538408.9792493</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25216,17 +25160,11 @@
         <v>-264051096.5822493</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>0.2489</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25255,17 +25193,11 @@
         <v>-275917121.6388493</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
-      </c>
-      <c r="I748" t="n">
-        <v>0.2494</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25294,17 +25226,11 @@
         <v>-274633227.5388493</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
-      </c>
-      <c r="I749" t="n">
-        <v>0.247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25337,11 +25263,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25370,17 +25292,11 @@
         <v>-274938354.9848493</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
-      </c>
-      <c r="I751" t="n">
-        <v>0.2496</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25409,23 +25325,17 @@
         <v>-273493421.3998493</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
-      </c>
-      <c r="I752" t="n">
-        <v>0.2473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
       <c r="M752" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest AMO.xlsx
+++ b/BackTest/2020-01-16 BackTest AMO.xlsx
@@ -1078,7 +1078,7 @@
         <v>-68777828.85340004</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-67926198.63540004</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-75174673.24690004</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-76441615.82190004</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-75717122.03890003</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>52943091.35979998</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>56345558.25279998</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>55307461.26179998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>56701540.27279998</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>57409082.53079998</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>56133664.19379999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>54765012.46979999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>55904818.60879999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>56993770.17379998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>55591215.40079998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>56951391.36179999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>56747973.06479998</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>57803021.58079998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>56688642.72879998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>55345418.29279999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>56095339.36279999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>54853824.07479998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>53917436.23279998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>54972484.74779999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>53951339.28179999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>54853824.07479998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>53976766.56979998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>53286175.83679998</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>51815814.96479998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>52599639.08379998</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>53722493.69779998</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>54989436.27279998</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>53771671.75059998</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>54801292.97859998</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>55517310.99859998</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>56852059.67259999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>57551126.16759998</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>54974862.20559999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>55936677.33459999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>58673980.78159998</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>57856253.61259998</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>59796835.39559999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>58724835.35559999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>60774541.31499998</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>59905959.57199998</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>60664356.40399998</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>61583792.72099999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>60282947.09699999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>59202471.29399998</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>60732162.50299998</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>62041483.88999999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>60562647.25599998</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>61558365.43499998</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>62350665.31699998</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>61380374.42499998</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>62232004.64299998</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>61371898.66199999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>62791404.95999999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>61626171.53399999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>60469413.86999999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>61922823.21699999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>62901589.87099999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>63634559.41599999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>62443898.70199999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>61532938.14699999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>60605026.06699999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>62100814.226</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>62910065.632</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>61693977.631</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>62757501.90899999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>63651510.939</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>62850735.29499999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>64024444.484</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>64748938.267</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>63643035.17699999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>64409907.77199999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>65846365.59499999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>64613326.06999999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>63401942.9883</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>64863828.0983</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>66113819.14829999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>65101149.44429999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>64054576.69129999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>65007916.05829999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>66520655.74229999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>65533413.32629999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>66885113.52529999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>65880919.58429999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>67385183.50629999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>68330047.11129999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>66952919.62529999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>65465607.22829999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>66749501.32829999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>65923298.39729999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>64791968.02029999</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>63347034.43529999</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>62991052.41529999</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>63698594.67329999</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>62423176.33629999</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>61054524.61229999</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>62194330.75129999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>63283282.31629999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>61880727.54329999</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>60520551.58229998</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>61745115.34529998</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>60317133.28529998</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>59543760.30409998</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>57111201.08429997</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>58259482.98629998</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>57145104.13429998</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>55801879.69829998</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>56365333.99529998</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>55006718.09249998</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>55909202.88549998</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>55032145.38049997</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>57193096.98549998</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>58799070.05549998</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>57591457.81749998</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>58621079.04549998</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>57905061.02549998</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>59239809.69949998</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>59938876.19449998</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>58621079.04549998</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>59879545.85849998</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>60841360.98749998</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>60844616.46569999</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>58501977.55369999</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>59913008.08869998</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>59913008.08869998</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>60747686.78269998</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>61946823.25869998</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>61205377.95169999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>62277377.99169999</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>60756161.77589998</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>59870628.50789998</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>61052813.45889998</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>60209659.00289998</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>61078240.74589998</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>53284290.74589998</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>52525893.91389998</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>49569759.22089998</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>50489195.53789999</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>43839467.41119999</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>43839467.41119999</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>42309776.20219999</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>38990900.84309999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>40147658.50709999</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>38694249.16009998</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>37715482.50609998</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>27924559.00299998</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>9693716.817399982</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>7787207.449499981</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-8725923.547400018</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-16305038.23840002</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-16303069.23840002</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-18694865.42740002</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-35449611.10960002</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-36606368.77360002</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-137497502.9692001</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-137912815.3252001</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-138747489.7843001</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-140116141.5083001</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-138976335.3693001</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-137887383.8043001</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-139289938.5773001</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-140650114.5383001</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-139425550.7753001</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-137997568.7153001</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-136611965.4673001</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-137387313.8243001</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-136094943.9623001</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-134646662.0603001</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-132532283.2083001</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-133875507.6443001</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-133873508.6443001</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-127929500.2163001</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-150164895.0110003</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-151070862.9791003</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-151949906.7441003</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-151953389.9192003</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-151262799.1862003</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-153072190.5532003</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-152359407.1362004</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23452,11 +23452,17 @@
         <v>-254711821.0442494</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>0.2499</v>
+      </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23485,11 +23491,17 @@
         <v>-254711821.0442494</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>0.25</v>
+      </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23518,11 +23530,17 @@
         <v>-254709700.9608494</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>0.25</v>
+      </c>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23551,11 +23569,17 @@
         <v>-249351073.9039494</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>0.2502</v>
+      </c>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23584,11 +23608,17 @@
         <v>-250202704.1219494</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>0.251</v>
+      </c>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23617,11 +23647,17 @@
         <v>-249342598.1409494</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0.2502</v>
+      </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23650,11 +23686,17 @@
         <v>-249642598.1409494</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>0.2506</v>
+      </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23683,11 +23725,17 @@
         <v>-248223091.8429494</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>0.25</v>
+      </c>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23716,11 +23764,17 @@
         <v>-249388325.2689494</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>0.2507</v>
+      </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23749,11 +23803,17 @@
         <v>-250545082.9329494</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>0.2498</v>
+      </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23790,7 +23850,7 @@
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L709" t="n">
@@ -24047,9 +24107,11 @@
         <v>-248579609.5875494</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>0.2509</v>
+      </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -24084,9 +24146,11 @@
         <v>-248577620.5875494</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>0.25</v>
+      </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -24454,9 +24518,11 @@
         <v>-263698399.3215494</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>0.2507</v>
+      </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -24491,9 +24557,11 @@
         <v>-262931526.7265494</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>0.2502</v>
+      </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -24528,9 +24596,11 @@
         <v>-261495068.9035494</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>0.2513</v>
+      </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -24565,9 +24635,11 @@
         <v>-261499452.7858494</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>0.2516</v>
+      </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -24602,9 +24674,11 @@
         <v>-260259116.8881494</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>0.2501</v>
+      </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -24639,9 +24713,11 @@
         <v>-260159116.8881494</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>0.2502</v>
+      </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -24861,16 +24937,18 @@
         <v>-260523596.9957494</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L738" t="inlineStr"/>
+      <c r="L738" t="n">
+        <v>1</v>
+      </c>
       <c r="M738" t="inlineStr"/>
     </row>
     <row r="739">
@@ -24896,11 +24974,15 @@
         <v>-261476936.3627494</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24929,11 +25011,15 @@
         <v>-262989676.0467494</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24966,7 +25052,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24999,7 +25089,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25032,7 +25126,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25061,11 +25159,15 @@
         <v>-265106145.0982493</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25094,11 +25196,15 @@
         <v>-264161281.4932493</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25127,11 +25233,15 @@
         <v>-265538408.9792493</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25160,11 +25270,17 @@
         <v>-264051096.5822493</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>0.2489</v>
+      </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25193,11 +25309,17 @@
         <v>-275917121.6388493</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>0.2494</v>
+      </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25226,11 +25348,17 @@
         <v>-274633227.5388493</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>0.247</v>
+      </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25259,11 +25387,17 @@
         <v>-273807024.6078493</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>0.2486</v>
+      </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25292,11 +25426,17 @@
         <v>-274938354.9848493</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>0.2496</v>
+      </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25325,11 +25465,17 @@
         <v>-273493421.3998493</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>0.2473</v>
+      </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
